--- a/app/data/static/samples/inputs/ricotta/2021-05-15 План по варкам рикотта.xlsx
+++ b/app/data/static/samples/inputs/ricotta/2021-05-15 План по варкам рикотта.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijkadaner/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/ricotta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B36D7E9-9F71-D94A-A9DB-8C16C6532E93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E815-11CD-0C43-AF40-1FF47C959B0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="Water_SKU">SKU!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="686">
   <si>
     <t>Отчет от</t>
   </si>
@@ -2331,12 +2331,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2349,11 +2343,191 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -45327,11 +45501,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMK322"/>
+  <dimension ref="A1:AMK324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45360,44 +45534,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>675</v>
       </c>
       <c r="J1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="38" t="s">
         <v>676</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="38" t="s">
         <v>678</v>
       </c>
       <c r="T1" s="20" t="s">
@@ -45411,15 +45585,15 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="19" t="s">
         <v>682</v>
       </c>
@@ -45432,19 +45606,19 @@
       <c r="N2" s="19">
         <v>0</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="23">
         <v>58320</v>
       </c>
       <c r="U2" s="24">
-        <f ca="1">SUMPRODUCT(H3:H118, R3:R118)</f>
-        <v>58590</v>
+        <f ca="1">SUMPRODUCT(H3:H120, R3:R120)</f>
+        <v>60480</v>
       </c>
       <c r="V2" s="25">
         <f ca="1">T2-U2</f>
-        <v>-270</v>
+        <v>-2160</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45474,35 +45648,35 @@
         <v/>
       </c>
       <c r="H3" s="30" t="str">
-        <f t="shared" ref="H3:H32" ca="1" si="1">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ref="H3:H34" ca="1" si="1">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I3" s="30" t="str">
-        <f t="shared" ref="I3:I64" ca="1" si="2">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ref="I3:I66" ca="1" si="2">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K32" ca="1" si="3">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1)*R3,F3)</f>
+        <f t="shared" ref="K3:K34" ca="1" si="3">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1)*R3,F3)</f>
         <v>400</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L32" ca="1" si="4">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
+        <f t="shared" ref="L3:L34" ca="1" si="4">IF(J3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K3)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M32" si="5">IF(J3="-",1,0)</f>
+        <f t="shared" ref="M3:M34" si="5">IF(J3="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N32" ca="1" si="6">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
+        <f t="shared" ref="N3:N34" ca="1" si="6">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="31" t="str">
-        <f t="shared" ref="R3:R32" ca="1" si="7">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ref="R3:R34" ca="1" si="7">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S3" s="32" t="str">
-        <f t="shared" ref="S3:S64" ca="1" si="8">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ref="S3:S66" ca="1" si="8">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -46077,7 +46251,7 @@
         <v>274</v>
       </c>
       <c r="F13" s="26">
-        <v>400</v>
+        <v>266.7</v>
       </c>
       <c r="G13" s="29" t="str">
         <f ca="1">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
@@ -46093,7 +46267,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <v>266.7</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -46138,7 +46312,7 @@
       </c>
       <c r="G14" s="29">
         <f ca="1">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
-        <v>0</v>
+        <v>-3.333333333335986E-2</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" ca="1" si="1"/>
@@ -46153,11 +46327,11 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-400</v>
+        <v>-266.66666666666663</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
@@ -46165,14 +46339,14 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="Q14" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="31">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S14" s="32" t="str">
         <f t="shared" ca="1" si="8"/>
@@ -46180,102 +46354,124 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="str">
-        <f>IF(E15="","",VLOOKUP(E15,SKU!$A$1:$B$150,2,0))</f>
-        <v/>
-      </c>
-      <c r="C15" s="32" t="str">
+      <c r="A15" s="26">
+        <f t="shared" ref="A15:A16" ca="1" si="9">IF(J15="-", "", 1 + SUM(INDIRECT(ADDRESS(2,COLUMN(M15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(M15)))))</f>
+        <v>7</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="C15" s="28">
         <f>IF(E15="","",VLOOKUP(E15,SKU!$A$1:$C$150,3,0))</f>
-        <v/>
-      </c>
-      <c r="D15" s="32" t="str">
+        <v>350</v>
+      </c>
+      <c r="D15" s="28">
         <f>IF(E15="","",VLOOKUP(E15,SKU!$A$1:$D$150,4,0))</f>
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="26">
+        <v>350</v>
       </c>
       <c r="G15" s="29" t="str">
         <f ca="1">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
       <c r="H15" s="30" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="H15:H16" ca="1" si="10">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I15" s="30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="I15:I16" ca="1" si="11">IF(J15 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K15" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="K15:K16" ca="1" si="12">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1)*R15,F15)</f>
+        <v>350</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="L15:L16" ca="1" si="13">IF(J15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K15)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M15:M16" si="14">IF(J15="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="N15:N16" ca="1" si="15">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R15" s="31" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="R15:R16" ca="1" si="16">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S15" s="32" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="S15:S16" ca="1" si="17">IF(J15="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:22" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
       <c r="B16" s="32" t="str">
         <f>IF(E16="","",VLOOKUP(E16,SKU!$A$1:$B$150,2,0))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="C16" s="32" t="str">
         <f>IF(E16="","",VLOOKUP(E16,SKU!$A$1:$C$150,3,0))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>IF(E16="","",VLOOKUP(E16,SKU!$A$1:$D$150,4,0))</f>
-        <v/>
-      </c>
-      <c r="G16" s="29" t="str">
+        <v>-</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="G16" s="29">
         <f ca="1">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
-        <v/>
-      </c>
-      <c r="H16" s="30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="I16" s="30" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" ca="1" si="10"/>
+        <v>3780</v>
+      </c>
+      <c r="I16" s="30">
+        <f t="shared" ca="1" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>685</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-350</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="31" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
+        <f t="shared" ca="1" si="15"/>
+        <v>3.333333333335986E-2</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>2</v>
+      </c>
+      <c r="R16" s="31">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="S16" s="32" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -46318,7 +46514,7 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R17" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46368,7 +46564,7 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R18" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46418,7 +46614,7 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R19" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46468,7 +46664,7 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R20" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46518,7 +46714,7 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R21" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46568,7 +46764,7 @@
       </c>
       <c r="N22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R22" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46618,7 +46814,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R23" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46668,7 +46864,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R24" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46718,7 +46914,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R25" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46768,7 +46964,7 @@
       </c>
       <c r="N26" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R26" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46818,7 +47014,7 @@
       </c>
       <c r="N27" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R27" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46868,7 +47064,7 @@
       </c>
       <c r="N28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R28" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46918,7 +47114,7 @@
       </c>
       <c r="N29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R29" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -46968,7 +47164,7 @@
       </c>
       <c r="N30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R30" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -47018,7 +47214,7 @@
       </c>
       <c r="N31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R31" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -47068,7 +47264,7 @@
       </c>
       <c r="N32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R32" s="31" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -47097,7 +47293,7 @@
         <v/>
       </c>
       <c r="H33" s="30" t="str">
-        <f t="shared" ref="H33:H64" ca="1" si="9">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="I33" s="30" t="str">
@@ -47105,23 +47301,23 @@
         <v/>
       </c>
       <c r="K33" s="1">
-        <f t="shared" ref="K33:K64" ca="1" si="10">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1)*R33,F33)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" ref="L33:L64" ca="1" si="11">IF(J33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K33)))), 0)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" ref="M33:M64" si="12">IF(J33="-",1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" ref="N33:N64" ca="1" si="13">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R33" s="31" t="str">
-        <f t="shared" ref="R33:R64" ca="1" si="14">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="S33" s="32" t="str">
@@ -47147,7 +47343,7 @@
         <v/>
       </c>
       <c r="H34" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="I34" s="30" t="str">
@@ -47155,23 +47351,23 @@
         <v/>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R34" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="S34" s="32" t="str">
@@ -47197,7 +47393,7 @@
         <v/>
       </c>
       <c r="H35" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="H35:H66" ca="1" si="18">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I35" s="30" t="str">
@@ -47205,23 +47401,23 @@
         <v/>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="K35:K66" ca="1" si="19">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1)*R35,F35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="L35:L66" ca="1" si="20">IF(J35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K35)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M35:M66" si="21">IF(J35="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="N35:N66" ca="1" si="22">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R35" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="R35:R66" ca="1" si="23">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S35" s="32" t="str">
@@ -47247,7 +47443,7 @@
         <v/>
       </c>
       <c r="H36" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I36" s="30" t="str">
@@ -47255,23 +47451,23 @@
         <v/>
       </c>
       <c r="K36" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R36" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S36" s="32" t="str">
@@ -47297,7 +47493,7 @@
         <v/>
       </c>
       <c r="H37" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I37" s="30" t="str">
@@ -47305,23 +47501,23 @@
         <v/>
       </c>
       <c r="K37" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R37" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S37" s="32" t="str">
@@ -47347,7 +47543,7 @@
         <v/>
       </c>
       <c r="H38" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I38" s="30" t="str">
@@ -47355,23 +47551,23 @@
         <v/>
       </c>
       <c r="K38" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R38" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S38" s="32" t="str">
@@ -47397,7 +47593,7 @@
         <v/>
       </c>
       <c r="H39" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I39" s="30" t="str">
@@ -47405,23 +47601,23 @@
         <v/>
       </c>
       <c r="K39" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R39" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S39" s="32" t="str">
@@ -47447,7 +47643,7 @@
         <v/>
       </c>
       <c r="H40" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I40" s="30" t="str">
@@ -47455,23 +47651,23 @@
         <v/>
       </c>
       <c r="K40" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R40" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S40" s="32" t="str">
@@ -47497,7 +47693,7 @@
         <v/>
       </c>
       <c r="H41" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I41" s="30" t="str">
@@ -47505,23 +47701,23 @@
         <v/>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R41" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S41" s="32" t="str">
@@ -47547,7 +47743,7 @@
         <v/>
       </c>
       <c r="H42" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I42" s="30" t="str">
@@ -47555,23 +47751,23 @@
         <v/>
       </c>
       <c r="K42" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R42" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S42" s="32" t="str">
@@ -47597,7 +47793,7 @@
         <v/>
       </c>
       <c r="H43" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I43" s="30" t="str">
@@ -47605,23 +47801,23 @@
         <v/>
       </c>
       <c r="K43" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R43" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S43" s="32" t="str">
@@ -47647,7 +47843,7 @@
         <v/>
       </c>
       <c r="H44" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I44" s="30" t="str">
@@ -47655,23 +47851,23 @@
         <v/>
       </c>
       <c r="K44" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R44" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S44" s="32" t="str">
@@ -47697,7 +47893,7 @@
         <v/>
       </c>
       <c r="H45" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I45" s="30" t="str">
@@ -47705,23 +47901,23 @@
         <v/>
       </c>
       <c r="K45" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R45" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S45" s="32" t="str">
@@ -47747,7 +47943,7 @@
         <v/>
       </c>
       <c r="H46" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I46" s="30" t="str">
@@ -47755,23 +47951,23 @@
         <v/>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R46" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S46" s="32" t="str">
@@ -47797,7 +47993,7 @@
         <v/>
       </c>
       <c r="H47" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I47" s="30" t="str">
@@ -47805,23 +48001,23 @@
         <v/>
       </c>
       <c r="K47" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R47" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S47" s="32" t="str">
@@ -47847,7 +48043,7 @@
         <v/>
       </c>
       <c r="H48" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I48" s="30" t="str">
@@ -47855,23 +48051,23 @@
         <v/>
       </c>
       <c r="K48" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R48" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S48" s="32" t="str">
@@ -47897,7 +48093,7 @@
         <v/>
       </c>
       <c r="H49" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I49" s="30" t="str">
@@ -47905,23 +48101,23 @@
         <v/>
       </c>
       <c r="K49" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R49" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S49" s="32" t="str">
@@ -47947,7 +48143,7 @@
         <v/>
       </c>
       <c r="H50" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I50" s="30" t="str">
@@ -47955,23 +48151,23 @@
         <v/>
       </c>
       <c r="K50" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R50" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S50" s="32" t="str">
@@ -47997,7 +48193,7 @@
         <v/>
       </c>
       <c r="H51" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I51" s="30" t="str">
@@ -48005,23 +48201,23 @@
         <v/>
       </c>
       <c r="K51" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R51" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S51" s="32" t="str">
@@ -48047,7 +48243,7 @@
         <v/>
       </c>
       <c r="H52" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I52" s="30" t="str">
@@ -48055,23 +48251,23 @@
         <v/>
       </c>
       <c r="K52" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R52" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S52" s="32" t="str">
@@ -48097,7 +48293,7 @@
         <v/>
       </c>
       <c r="H53" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I53" s="30" t="str">
@@ -48105,23 +48301,23 @@
         <v/>
       </c>
       <c r="K53" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R53" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S53" s="32" t="str">
@@ -48147,7 +48343,7 @@
         <v/>
       </c>
       <c r="H54" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I54" s="30" t="str">
@@ -48155,23 +48351,23 @@
         <v/>
       </c>
       <c r="K54" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R54" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S54" s="32" t="str">
@@ -48197,7 +48393,7 @@
         <v/>
       </c>
       <c r="H55" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I55" s="30" t="str">
@@ -48205,23 +48401,23 @@
         <v/>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R55" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S55" s="32" t="str">
@@ -48247,7 +48443,7 @@
         <v/>
       </c>
       <c r="H56" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I56" s="30" t="str">
@@ -48255,23 +48451,23 @@
         <v/>
       </c>
       <c r="K56" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R56" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S56" s="32" t="str">
@@ -48297,7 +48493,7 @@
         <v/>
       </c>
       <c r="H57" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I57" s="30" t="str">
@@ -48305,23 +48501,23 @@
         <v/>
       </c>
       <c r="K57" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R57" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S57" s="32" t="str">
@@ -48347,7 +48543,7 @@
         <v/>
       </c>
       <c r="H58" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I58" s="30" t="str">
@@ -48355,23 +48551,23 @@
         <v/>
       </c>
       <c r="K58" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R58" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S58" s="32" t="str">
@@ -48397,7 +48593,7 @@
         <v/>
       </c>
       <c r="H59" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I59" s="30" t="str">
@@ -48405,23 +48601,23 @@
         <v/>
       </c>
       <c r="K59" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N59" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R59" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S59" s="32" t="str">
@@ -48447,7 +48643,7 @@
         <v/>
       </c>
       <c r="H60" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I60" s="30" t="str">
@@ -48455,23 +48651,23 @@
         <v/>
       </c>
       <c r="K60" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R60" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S60" s="32" t="str">
@@ -48497,7 +48693,7 @@
         <v/>
       </c>
       <c r="H61" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I61" s="30" t="str">
@@ -48505,23 +48701,23 @@
         <v/>
       </c>
       <c r="K61" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N61" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R61" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S61" s="32" t="str">
@@ -48547,7 +48743,7 @@
         <v/>
       </c>
       <c r="H62" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I62" s="30" t="str">
@@ -48555,23 +48751,23 @@
         <v/>
       </c>
       <c r="K62" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N62" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R62" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S62" s="32" t="str">
@@ -48597,7 +48793,7 @@
         <v/>
       </c>
       <c r="H63" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I63" s="30" t="str">
@@ -48605,23 +48801,23 @@
         <v/>
       </c>
       <c r="K63" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N63" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R63" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S63" s="32" t="str">
@@ -48647,7 +48843,7 @@
         <v/>
       </c>
       <c r="H64" s="30" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I64" s="30" t="str">
@@ -48655,23 +48851,23 @@
         <v/>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N64" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R64" s="31" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S64" s="32" t="str">
@@ -48697,35 +48893,35 @@
         <v/>
       </c>
       <c r="H65" s="30" t="str">
-        <f t="shared" ref="H65:H96" ca="1" si="15">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I65" s="30" t="str">
-        <f t="shared" ref="I65:I128" ca="1" si="16">IF(J65 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K65" s="1">
-        <f t="shared" ref="K65:K96" ca="1" si="17">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1)*R65,F65)</f>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" ref="L65:L70" ca="1" si="18">IF(J65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K65)))), 0)</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" ref="M65:M96" si="19">IF(J65="-",1,0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" ref="N65:N96" ca="1" si="20">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R65" s="31" t="str">
-        <f t="shared" ref="R65:R96" ca="1" si="21">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S65" s="32" t="str">
-        <f t="shared" ref="S65:S128" ca="1" si="22">IF(J65="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -48747,35 +48943,35 @@
         <v/>
       </c>
       <c r="H66" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="I66" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K66" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="19"/>
         <v>0</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N66" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R66" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S66" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
     </row>
@@ -48797,35 +48993,35 @@
         <v/>
       </c>
       <c r="H67" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="H67:H98" ca="1" si="24">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I67" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="I67:I130" ca="1" si="25">IF(J67 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ref="K67:K98" ca="1" si="26">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1)*R67,F67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ref="L67:L72" ca="1" si="27">IF(J67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K67)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="M67:M98" si="28">IF(J67="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ref="N67:N98" ca="1" si="29">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R67" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ref="R67:R98" ca="1" si="30">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S67" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ref="S67:S130" ca="1" si="31">IF(J67="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -48847,35 +49043,35 @@
         <v/>
       </c>
       <c r="H68" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I68" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K68" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R68" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S68" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -48897,35 +49093,35 @@
         <v/>
       </c>
       <c r="H69" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I69" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K69" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R69" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S69" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -48947,35 +49143,35 @@
         <v/>
       </c>
       <c r="H70" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I70" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K70" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R70" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S70" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -48997,35 +49193,35 @@
         <v/>
       </c>
       <c r="H71" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I71" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K71" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" ref="L71:L96" ca="1" si="23">IF(J71="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K71)))),0)</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R71" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S71" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49047,35 +49243,35 @@
         <v/>
       </c>
       <c r="H72" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I72" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K72" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R72" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S72" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49097,35 +49293,35 @@
         <v/>
       </c>
       <c r="H73" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I73" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K73" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="L73:L98" ca="1" si="32">IF(J73="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K73)))),0)</f>
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R73" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S73" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49147,35 +49343,35 @@
         <v/>
       </c>
       <c r="H74" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I74" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K74" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R74" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S74" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49197,35 +49393,35 @@
         <v/>
       </c>
       <c r="H75" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I75" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K75" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R75" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S75" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49247,35 +49443,35 @@
         <v/>
       </c>
       <c r="H76" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I76" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K76" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R76" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S76" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49297,35 +49493,35 @@
         <v/>
       </c>
       <c r="H77" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I77" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K77" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R77" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S77" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49347,35 +49543,35 @@
         <v/>
       </c>
       <c r="H78" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I78" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R78" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S78" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49397,35 +49593,35 @@
         <v/>
       </c>
       <c r="H79" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I79" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K79" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R79" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S79" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49447,35 +49643,35 @@
         <v/>
       </c>
       <c r="H80" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I80" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K80" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R80" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S80" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49497,35 +49693,35 @@
         <v/>
       </c>
       <c r="H81" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I81" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R81" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S81" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49547,35 +49743,35 @@
         <v/>
       </c>
       <c r="H82" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I82" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K82" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R82" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S82" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49597,35 +49793,35 @@
         <v/>
       </c>
       <c r="H83" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I83" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K83" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R83" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S83" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49647,35 +49843,35 @@
         <v/>
       </c>
       <c r="H84" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I84" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R84" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S84" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49697,35 +49893,35 @@
         <v/>
       </c>
       <c r="H85" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I85" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K85" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R85" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S85" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49747,35 +49943,35 @@
         <v/>
       </c>
       <c r="H86" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I86" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K86" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R86" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S86" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49797,35 +49993,35 @@
         <v/>
       </c>
       <c r="H87" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I87" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R87" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S87" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49847,35 +50043,35 @@
         <v/>
       </c>
       <c r="H88" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I88" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K88" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R88" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S88" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49897,35 +50093,35 @@
         <v/>
       </c>
       <c r="H89" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I89" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K89" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R89" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S89" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49947,35 +50143,35 @@
         <v/>
       </c>
       <c r="H90" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I90" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K90" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R90" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S90" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -49997,35 +50193,35 @@
         <v/>
       </c>
       <c r="H91" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I91" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K91" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R91" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S91" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50047,35 +50243,35 @@
         <v/>
       </c>
       <c r="H92" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I92" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K92" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R92" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S92" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50097,35 +50293,35 @@
         <v/>
       </c>
       <c r="H93" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I93" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K93" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R93" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S93" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50147,35 +50343,35 @@
         <v/>
       </c>
       <c r="H94" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I94" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K94" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R94" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S94" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50197,35 +50393,35 @@
         <v/>
       </c>
       <c r="H95" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I95" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K95" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R95" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S95" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50247,35 +50443,35 @@
         <v/>
       </c>
       <c r="H96" s="30" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I96" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K96" s="1">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R96" s="31" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S96" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50297,35 +50493,35 @@
         <v/>
       </c>
       <c r="H97" s="30" t="str">
-        <f t="shared" ref="H97:H128" ca="1" si="24">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="I97" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K97" s="1">
-        <f t="shared" ref="K97:K119" ca="1" si="25">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1)*R97,F97)</f>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" ref="L97:L119" ca="1" si="26">IF(J97 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K97)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K97)))), 0)</f>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" ref="M97:M119" si="27">IF(J97="-",1,0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" ref="N97:N119" ca="1" si="28">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R97" s="31" t="str">
-        <f t="shared" ref="R97:R128" ca="1" si="29">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S97" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50351,31 +50547,31 @@
         <v/>
       </c>
       <c r="I98" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K98" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>0</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="29"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R98" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S98" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50397,35 +50593,35 @@
         <v/>
       </c>
       <c r="H99" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ref="H99:H130" ca="1" si="33">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I99" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K99" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ref="K99:K121" ca="1" si="34">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1)*R99,F99)</f>
         <v>0</v>
       </c>
       <c r="L99" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="L99:L121" ca="1" si="35">IF(J99 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K99)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K99)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="M99:M121" si="36">IF(J99="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ref="N99:N121" ca="1" si="37">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R99" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ref="R99:R130" ca="1" si="38">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S99" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50447,35 +50643,35 @@
         <v/>
       </c>
       <c r="H100" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I100" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K100" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R100" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S100" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50497,35 +50693,35 @@
         <v/>
       </c>
       <c r="H101" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I101" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K101" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R101" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S101" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50547,35 +50743,35 @@
         <v/>
       </c>
       <c r="H102" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I102" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K102" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L102" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R102" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S102" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50597,35 +50793,35 @@
         <v/>
       </c>
       <c r="H103" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I103" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K103" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R103" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S103" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50647,35 +50843,35 @@
         <v/>
       </c>
       <c r="H104" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I104" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K104" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R104" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S104" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50697,35 +50893,35 @@
         <v/>
       </c>
       <c r="H105" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I105" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K105" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R105" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S105" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50747,35 +50943,35 @@
         <v/>
       </c>
       <c r="H106" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I106" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K106" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R106" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S106" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50797,35 +50993,35 @@
         <v/>
       </c>
       <c r="H107" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I107" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K107" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R107" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S107" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50847,35 +51043,35 @@
         <v/>
       </c>
       <c r="H108" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I108" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K108" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R108" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S108" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50897,35 +51093,35 @@
         <v/>
       </c>
       <c r="H109" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I109" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K109" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R109" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S109" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50947,35 +51143,35 @@
         <v/>
       </c>
       <c r="H110" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I110" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K110" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L110" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R110" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S110" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -50997,35 +51193,35 @@
         <v/>
       </c>
       <c r="H111" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I111" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K111" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L111" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R111" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S111" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51047,35 +51243,35 @@
         <v/>
       </c>
       <c r="H112" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I112" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K112" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R112" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S112" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51097,35 +51293,35 @@
         <v/>
       </c>
       <c r="H113" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I113" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K113" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L113" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R113" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S113" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51147,35 +51343,35 @@
         <v/>
       </c>
       <c r="H114" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I114" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K114" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R114" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S114" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51197,35 +51393,35 @@
         <v/>
       </c>
       <c r="H115" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I115" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K115" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R115" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S115" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51247,35 +51443,35 @@
         <v/>
       </c>
       <c r="H116" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I116" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K116" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R116" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S116" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51297,35 +51493,35 @@
         <v/>
       </c>
       <c r="H117" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I117" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K117" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R117" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S117" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51347,40 +51543,43 @@
         <v/>
       </c>
       <c r="H118" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I118" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K118" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L118" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R118" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S118" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="32"/>
+      <c r="B119" s="32" t="str">
+        <f>IF(E119="","",VLOOKUP(E119,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
       <c r="C119" s="32" t="str">
         <f>IF(E119="","",VLOOKUP(E119,SKU!$A$1:$C$150,3,0))</f>
         <v/>
@@ -51394,40 +51593,43 @@
         <v/>
       </c>
       <c r="H119" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I119" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K119" s="1">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="34"/>
         <v>0</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="35"/>
         <v>0</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R119" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S119" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="32"/>
+      <c r="B120" s="32" t="str">
+        <f>IF(E120="","",VLOOKUP(E120,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
       <c r="C120" s="32" t="str">
         <f>IF(E120="","",VLOOKUP(E120,SKU!$A$1:$C$150,3,0))</f>
         <v/>
@@ -51436,20 +51638,40 @@
         <f>IF(E120="","",VLOOKUP(E120,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
+      <c r="G120" s="29" t="str">
+        <f ca="1">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
+        <v/>
+      </c>
       <c r="H120" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I120" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R120" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S120" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51463,20 +51685,40 @@
         <f>IF(E121="","",VLOOKUP(E121,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
+      <c r="G121" s="29" t="str">
+        <f ca="1">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
+        <v/>
+      </c>
       <c r="H121" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I121" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
-        <v/>
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>3.333333333335986E-2</v>
       </c>
       <c r="R121" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S121" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51491,19 +51733,19 @@
         <v/>
       </c>
       <c r="H122" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I122" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R122" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S122" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51518,19 +51760,19 @@
         <v/>
       </c>
       <c r="H123" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I123" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R123" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S123" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51545,19 +51787,19 @@
         <v/>
       </c>
       <c r="H124" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I124" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R124" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S124" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51572,19 +51814,19 @@
         <v/>
       </c>
       <c r="H125" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I125" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R125" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S125" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51599,19 +51841,19 @@
         <v/>
       </c>
       <c r="H126" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I126" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R126" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S126" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51626,19 +51868,19 @@
         <v/>
       </c>
       <c r="H127" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I127" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R127" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S127" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51653,19 +51895,19 @@
         <v/>
       </c>
       <c r="H128" s="30" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I128" s="30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R128" s="31" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S128" s="32" t="str">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51680,19 +51922,19 @@
         <v/>
       </c>
       <c r="H129" s="30" t="str">
-        <f t="shared" ref="H129:H161" ca="1" si="30">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I129" s="30" t="str">
-        <f t="shared" ref="I129:I192" ca="1" si="31">IF(J129 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R129" s="31" t="str">
-        <f t="shared" ref="R129:R160" ca="1" si="32">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S129" s="32" t="str">
-        <f t="shared" ref="S129:S192" ca="1" si="33">IF(J129="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -51707,19 +51949,19 @@
         <v/>
       </c>
       <c r="H130" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="I130" s="30" t="str">
+        <f t="shared" ca="1" si="25"/>
+        <v/>
+      </c>
+      <c r="R130" s="31" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="S130" s="32" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="R130" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="S130" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
     </row>
@@ -51729,21 +51971,24 @@
         <f>IF(E131="","",VLOOKUP(E131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D131" s="32"/>
+      <c r="D131" s="32" t="str">
+        <f>IF(E131="","",VLOOKUP(E131,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
       <c r="H131" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="H131:H163" ca="1" si="39">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
       <c r="I131" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="I131:I194" ca="1" si="40">IF(J131 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R131" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="R131:R162" ca="1" si="41">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S131" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="S131:S194" ca="1" si="42">IF(J131="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -51753,21 +51998,24 @@
         <f>IF(E132="","",VLOOKUP(E132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D132" s="32"/>
+      <c r="D132" s="32" t="str">
+        <f>IF(E132="","",VLOOKUP(E132,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
       <c r="H132" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I132" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R132" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S132" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51779,19 +52027,19 @@
       </c>
       <c r="D133" s="32"/>
       <c r="H133" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I133" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R133" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S133" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51803,19 +52051,19 @@
       </c>
       <c r="D134" s="32"/>
       <c r="H134" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I134" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R134" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S134" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51827,19 +52075,19 @@
       </c>
       <c r="D135" s="32"/>
       <c r="H135" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I135" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R135" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S135" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51851,19 +52099,19 @@
       </c>
       <c r="D136" s="32"/>
       <c r="H136" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I136" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R136" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S136" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51875,19 +52123,19 @@
       </c>
       <c r="D137" s="32"/>
       <c r="H137" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I137" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R137" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S137" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51899,19 +52147,19 @@
       </c>
       <c r="D138" s="32"/>
       <c r="H138" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I138" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R138" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S138" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51923,19 +52171,19 @@
       </c>
       <c r="D139" s="32"/>
       <c r="H139" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I139" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R139" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S139" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51947,19 +52195,19 @@
       </c>
       <c r="D140" s="32"/>
       <c r="H140" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I140" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R140" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S140" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51971,19 +52219,19 @@
       </c>
       <c r="D141" s="32"/>
       <c r="H141" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I141" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R141" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S141" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -51995,19 +52243,19 @@
       </c>
       <c r="D142" s="32"/>
       <c r="H142" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I142" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R142" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S142" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52019,19 +52267,19 @@
       </c>
       <c r="D143" s="32"/>
       <c r="H143" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I143" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R143" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S143" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52043,19 +52291,19 @@
       </c>
       <c r="D144" s="32"/>
       <c r="H144" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I144" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R144" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S144" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52067,61 +52315,67 @@
       </c>
       <c r="D145" s="32"/>
       <c r="H145" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I145" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R145" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S145" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
+      <c r="C146" s="32" t="str">
+        <f>IF(E146="","",VLOOKUP(E146,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
       <c r="D146" s="32"/>
       <c r="H146" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I146" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R146" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S146" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
+      <c r="C147" s="32" t="str">
+        <f>IF(E147="","",VLOOKUP(E147,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
       <c r="D147" s="32"/>
       <c r="H147" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I147" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R147" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S147" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52130,19 +52384,19 @@
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
       <c r="H148" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I148" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R148" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S148" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52151,19 +52405,19 @@
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
       <c r="H149" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I149" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R149" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S149" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52172,19 +52426,19 @@
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
       <c r="H150" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I150" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R150" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S150" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52193,19 +52447,19 @@
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
       <c r="H151" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I151" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R151" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S151" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52214,19 +52468,19 @@
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
       <c r="H152" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I152" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R152" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S152" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52235,19 +52489,19 @@
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
       <c r="H153" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I153" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R153" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S153" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52256,19 +52510,19 @@
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
       <c r="H154" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I154" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R154" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S154" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52277,19 +52531,19 @@
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="H155" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I155" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R155" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S155" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52298,19 +52552,19 @@
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="H156" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I156" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R156" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S156" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52319,19 +52573,19 @@
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="H157" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I157" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R157" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S157" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52340,19 +52594,19 @@
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="H158" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I158" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R158" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S158" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52361,19 +52615,19 @@
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="H159" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I159" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R159" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S159" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52382,19 +52636,19 @@
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="H160" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I160" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R160" s="31" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S160" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52403,19 +52657,19 @@
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="H161" s="30" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="I161" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R161" s="31" t="str">
-        <f t="shared" ref="R161:R180" ca="1" si="34">IF(Q161 = "", "", Q161 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S161" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52423,16 +52677,20 @@
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
+      <c r="H162" s="30" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
       <c r="I162" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R162" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S162" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52440,16 +52698,20 @@
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
+      <c r="H163" s="30" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v/>
+      </c>
       <c r="I163" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R163" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="R163:R182" ca="1" si="43">IF(Q163 = "", "", Q163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
       <c r="S163" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52458,15 +52720,15 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
       <c r="I164" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R164" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S164" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52475,15 +52737,15 @@
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
       <c r="I165" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R165" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S165" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52492,15 +52754,15 @@
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
       <c r="I166" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R166" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S166" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52509,15 +52771,15 @@
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
       <c r="I167" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R167" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S167" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52526,15 +52788,15 @@
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
       <c r="I168" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R168" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S168" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52543,15 +52805,15 @@
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
       <c r="I169" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R169" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S169" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52560,15 +52822,15 @@
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
       <c r="I170" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R170" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S170" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52577,15 +52839,15 @@
       <c r="C171" s="32"/>
       <c r="D171" s="32"/>
       <c r="I171" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R171" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S171" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52594,15 +52856,15 @@
       <c r="C172" s="32"/>
       <c r="D172" s="32"/>
       <c r="I172" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R172" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S172" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52611,15 +52873,15 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
       <c r="I173" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R173" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S173" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52628,15 +52890,15 @@
       <c r="C174" s="32"/>
       <c r="D174" s="32"/>
       <c r="I174" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R174" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S174" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52645,15 +52907,15 @@
       <c r="C175" s="32"/>
       <c r="D175" s="32"/>
       <c r="I175" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R175" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S175" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52662,15 +52924,15 @@
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
       <c r="I176" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R176" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S176" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52679,15 +52941,15 @@
       <c r="C177" s="32"/>
       <c r="D177" s="32"/>
       <c r="I177" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R177" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S177" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52696,15 +52958,15 @@
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
       <c r="I178" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R178" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S178" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52713,15 +52975,15 @@
       <c r="C179" s="32"/>
       <c r="D179" s="32"/>
       <c r="I179" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R179" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S179" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52730,15 +52992,15 @@
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
       <c r="I180" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R180" s="31" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S180" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52747,12 +53009,15 @@
       <c r="C181" s="32"/>
       <c r="D181" s="32"/>
       <c r="I181" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="R181" s="31"/>
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="R181" s="31" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
       <c r="S181" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52761,12 +53026,15 @@
       <c r="C182" s="32"/>
       <c r="D182" s="32"/>
       <c r="I182" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v/>
-      </c>
-      <c r="R182" s="31"/>
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="R182" s="31" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
       <c r="S182" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52775,12 +53043,12 @@
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
       <c r="I183" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R183" s="31"/>
       <c r="S183" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52789,12 +53057,12 @@
       <c r="C184" s="32"/>
       <c r="D184" s="32"/>
       <c r="I184" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R184" s="31"/>
       <c r="S184" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52803,12 +53071,12 @@
       <c r="C185" s="32"/>
       <c r="D185" s="32"/>
       <c r="I185" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R185" s="31"/>
       <c r="S185" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52817,12 +53085,12 @@
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
       <c r="I186" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R186" s="31"/>
       <c r="S186" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52831,12 +53099,12 @@
       <c r="C187" s="32"/>
       <c r="D187" s="32"/>
       <c r="I187" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R187" s="31"/>
       <c r="S187" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52845,12 +53113,12 @@
       <c r="C188" s="32"/>
       <c r="D188" s="32"/>
       <c r="I188" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R188" s="31"/>
       <c r="S188" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52859,12 +53127,12 @@
       <c r="C189" s="32"/>
       <c r="D189" s="32"/>
       <c r="I189" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R189" s="31"/>
       <c r="S189" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52873,12 +53141,12 @@
       <c r="C190" s="32"/>
       <c r="D190" s="32"/>
       <c r="I190" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R190" s="31"/>
       <c r="S190" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52887,12 +53155,12 @@
       <c r="C191" s="32"/>
       <c r="D191" s="32"/>
       <c r="I191" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R191" s="31"/>
       <c r="S191" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52901,12 +53169,12 @@
       <c r="C192" s="32"/>
       <c r="D192" s="32"/>
       <c r="I192" s="30" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R192" s="31"/>
       <c r="S192" s="32" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52915,12 +53183,12 @@
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
       <c r="I193" s="30" t="str">
-        <f t="shared" ref="I193:I256" ca="1" si="35">IF(J193 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R193" s="31"/>
       <c r="S193" s="32" t="str">
-        <f t="shared" ref="S193:S225" ca="1" si="36">IF(J193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52929,12 +53197,12 @@
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
       <c r="I194" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="R194" s="31"/>
       <c r="S194" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -52943,12 +53211,12 @@
       <c r="C195" s="32"/>
       <c r="D195" s="32"/>
       <c r="I195" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ref="I195:I258" ca="1" si="44">IF(J195 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R195" s="31"/>
       <c r="S195" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ref="S195:S227" ca="1" si="45">IF(J195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -52957,12 +53225,12 @@
       <c r="C196" s="32"/>
       <c r="D196" s="32"/>
       <c r="I196" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R196" s="31"/>
       <c r="S196" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -52971,12 +53239,12 @@
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
       <c r="I197" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R197" s="31"/>
       <c r="S197" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -52985,12 +53253,12 @@
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="I198" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R198" s="31"/>
       <c r="S198" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -52999,12 +53267,12 @@
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
       <c r="I199" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R199" s="31"/>
       <c r="S199" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53013,12 +53281,12 @@
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
       <c r="I200" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R200" s="31"/>
       <c r="S200" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53027,12 +53295,12 @@
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
       <c r="I201" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R201" s="31"/>
       <c r="S201" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53041,12 +53309,12 @@
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
       <c r="I202" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R202" s="31"/>
       <c r="S202" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53055,12 +53323,12 @@
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
       <c r="I203" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R203" s="31"/>
       <c r="S203" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53069,12 +53337,12 @@
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
       <c r="I204" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R204" s="31"/>
       <c r="S204" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53083,12 +53351,12 @@
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
       <c r="I205" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R205" s="31"/>
       <c r="S205" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53097,12 +53365,12 @@
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
       <c r="I206" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R206" s="31"/>
       <c r="S206" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53111,12 +53379,12 @@
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
       <c r="I207" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R207" s="31"/>
       <c r="S207" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53125,12 +53393,12 @@
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
       <c r="I208" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R208" s="31"/>
       <c r="S208" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53139,12 +53407,12 @@
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
       <c r="I209" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R209" s="31"/>
       <c r="S209" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53153,12 +53421,12 @@
       <c r="C210" s="32"/>
       <c r="D210" s="32"/>
       <c r="I210" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R210" s="31"/>
       <c r="S210" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53167,12 +53435,12 @@
       <c r="C211" s="32"/>
       <c r="D211" s="32"/>
       <c r="I211" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R211" s="31"/>
       <c r="S211" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53181,12 +53449,12 @@
       <c r="C212" s="32"/>
       <c r="D212" s="32"/>
       <c r="I212" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R212" s="31"/>
       <c r="S212" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53195,12 +53463,12 @@
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="I213" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R213" s="31"/>
       <c r="S213" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53209,12 +53477,12 @@
       <c r="C214" s="32"/>
       <c r="D214" s="32"/>
       <c r="I214" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R214" s="31"/>
       <c r="S214" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53223,12 +53491,12 @@
       <c r="C215" s="32"/>
       <c r="D215" s="32"/>
       <c r="I215" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R215" s="31"/>
       <c r="S215" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53237,12 +53505,12 @@
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="I216" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R216" s="31"/>
       <c r="S216" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53251,12 +53519,12 @@
       <c r="C217" s="32"/>
       <c r="D217" s="32"/>
       <c r="I217" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R217" s="31"/>
       <c r="S217" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53265,12 +53533,12 @@
       <c r="C218" s="32"/>
       <c r="D218" s="32"/>
       <c r="I218" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R218" s="31"/>
       <c r="S218" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53279,12 +53547,12 @@
       <c r="C219" s="32"/>
       <c r="D219" s="32"/>
       <c r="I219" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R219" s="31"/>
       <c r="S219" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53293,12 +53561,12 @@
       <c r="C220" s="32"/>
       <c r="D220" s="32"/>
       <c r="I220" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R220" s="31"/>
       <c r="S220" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53307,12 +53575,12 @@
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
       <c r="I221" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R221" s="31"/>
       <c r="S221" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53321,12 +53589,12 @@
       <c r="C222" s="32"/>
       <c r="D222" s="32"/>
       <c r="I222" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R222" s="31"/>
       <c r="S222" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53335,12 +53603,12 @@
       <c r="C223" s="32"/>
       <c r="D223" s="32"/>
       <c r="I223" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R223" s="31"/>
       <c r="S223" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53349,12 +53617,12 @@
       <c r="C224" s="32"/>
       <c r="D224" s="32"/>
       <c r="I224" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R224" s="31"/>
       <c r="S224" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53363,12 +53631,12 @@
       <c r="C225" s="32"/>
       <c r="D225" s="32"/>
       <c r="I225" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R225" s="31"/>
       <c r="S225" s="32" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
     </row>
@@ -53377,29 +53645,35 @@
       <c r="C226" s="32"/>
       <c r="D226" s="32"/>
       <c r="I226" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R226" s="31"/>
-      <c r="S226" s="32"/>
+      <c r="S226" s="32" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="227" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
       <c r="D227" s="32"/>
       <c r="I227" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R227" s="31"/>
-      <c r="S227" s="32"/>
+      <c r="S227" s="32" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="228" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
       <c r="D228" s="32"/>
       <c r="I228" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R228" s="31"/>
@@ -53410,7 +53684,7 @@
       <c r="C229" s="32"/>
       <c r="D229" s="32"/>
       <c r="I229" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R229" s="31"/>
@@ -53421,7 +53695,7 @@
       <c r="C230" s="32"/>
       <c r="D230" s="32"/>
       <c r="I230" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R230" s="31"/>
@@ -53432,7 +53706,7 @@
       <c r="C231" s="32"/>
       <c r="D231" s="32"/>
       <c r="I231" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R231" s="31"/>
@@ -53443,7 +53717,7 @@
       <c r="C232" s="32"/>
       <c r="D232" s="32"/>
       <c r="I232" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R232" s="31"/>
@@ -53454,7 +53728,7 @@
       <c r="C233" s="32"/>
       <c r="D233" s="32"/>
       <c r="I233" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R233" s="31"/>
@@ -53465,7 +53739,7 @@
       <c r="C234" s="32"/>
       <c r="D234" s="32"/>
       <c r="I234" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R234" s="31"/>
@@ -53476,7 +53750,7 @@
       <c r="C235" s="32"/>
       <c r="D235" s="32"/>
       <c r="I235" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R235" s="31"/>
@@ -53487,7 +53761,7 @@
       <c r="C236" s="32"/>
       <c r="D236" s="32"/>
       <c r="I236" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R236" s="31"/>
@@ -53498,7 +53772,7 @@
       <c r="C237" s="32"/>
       <c r="D237" s="32"/>
       <c r="I237" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R237" s="31"/>
@@ -53509,7 +53783,7 @@
       <c r="C238" s="32"/>
       <c r="D238" s="32"/>
       <c r="I238" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R238" s="31"/>
@@ -53520,7 +53794,7 @@
       <c r="C239" s="32"/>
       <c r="D239" s="32"/>
       <c r="I239" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R239" s="31"/>
@@ -53531,7 +53805,7 @@
       <c r="C240" s="32"/>
       <c r="D240" s="32"/>
       <c r="I240" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R240" s="31"/>
@@ -53542,7 +53816,7 @@
       <c r="C241" s="32"/>
       <c r="D241" s="32"/>
       <c r="I241" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R241" s="31"/>
@@ -53553,7 +53827,7 @@
       <c r="C242" s="32"/>
       <c r="D242" s="32"/>
       <c r="I242" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R242" s="31"/>
@@ -53564,7 +53838,7 @@
       <c r="C243" s="32"/>
       <c r="D243" s="32"/>
       <c r="I243" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R243" s="31"/>
@@ -53575,7 +53849,7 @@
       <c r="C244" s="32"/>
       <c r="D244" s="32"/>
       <c r="I244" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R244" s="31"/>
@@ -53586,7 +53860,7 @@
       <c r="C245" s="32"/>
       <c r="D245" s="32"/>
       <c r="I245" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R245" s="31"/>
@@ -53597,7 +53871,7 @@
       <c r="C246" s="32"/>
       <c r="D246" s="32"/>
       <c r="I246" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R246" s="31"/>
@@ -53608,7 +53882,7 @@
       <c r="C247" s="32"/>
       <c r="D247" s="32"/>
       <c r="I247" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R247" s="31"/>
@@ -53619,7 +53893,7 @@
       <c r="C248" s="32"/>
       <c r="D248" s="32"/>
       <c r="I248" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R248" s="31"/>
@@ -53630,7 +53904,7 @@
       <c r="C249" s="32"/>
       <c r="D249" s="32"/>
       <c r="I249" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R249" s="31"/>
@@ -53641,7 +53915,7 @@
       <c r="C250" s="32"/>
       <c r="D250" s="32"/>
       <c r="I250" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R250" s="31"/>
@@ -53652,7 +53926,7 @@
       <c r="C251" s="32"/>
       <c r="D251" s="32"/>
       <c r="I251" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R251" s="31"/>
@@ -53663,7 +53937,7 @@
       <c r="C252" s="32"/>
       <c r="D252" s="32"/>
       <c r="I252" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R252" s="31"/>
@@ -53674,7 +53948,7 @@
       <c r="C253" s="32"/>
       <c r="D253" s="32"/>
       <c r="I253" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R253" s="31"/>
@@ -53685,7 +53959,7 @@
       <c r="C254" s="32"/>
       <c r="D254" s="32"/>
       <c r="I254" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R254" s="31"/>
@@ -53696,7 +53970,7 @@
       <c r="C255" s="32"/>
       <c r="D255" s="32"/>
       <c r="I255" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R255" s="31"/>
@@ -53707,7 +53981,7 @@
       <c r="C256" s="32"/>
       <c r="D256" s="32"/>
       <c r="I256" s="30" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R256" s="31"/>
@@ -53718,7 +53992,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="32"/>
       <c r="I257" s="30" t="str">
-        <f t="shared" ref="I257:I320" ca="1" si="37">IF(J257 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R257" s="31"/>
@@ -53729,7 +54003,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="32"/>
       <c r="I258" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="R258" s="31"/>
@@ -53740,7 +54014,7 @@
       <c r="C259" s="32"/>
       <c r="D259" s="32"/>
       <c r="I259" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ref="I259:I322" ca="1" si="46">IF(J259 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="R259" s="31"/>
@@ -53751,7 +54025,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
       <c r="I260" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R260" s="31"/>
@@ -53762,7 +54036,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
       <c r="I261" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R261" s="31"/>
@@ -53773,7 +54047,7 @@
       <c r="C262" s="32"/>
       <c r="D262" s="32"/>
       <c r="I262" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R262" s="31"/>
@@ -53784,7 +54058,7 @@
       <c r="C263" s="32"/>
       <c r="D263" s="32"/>
       <c r="I263" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="R263" s="31"/>
@@ -53795,25 +54069,29 @@
       <c r="C264" s="32"/>
       <c r="D264" s="32"/>
       <c r="I264" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R264" s="31"/>
+      <c r="S264" s="32"/>
     </row>
     <row r="265" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="32"/>
       <c r="C265" s="32"/>
       <c r="D265" s="32"/>
       <c r="I265" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="R265" s="31"/>
+      <c r="S265" s="32"/>
     </row>
     <row r="266" spans="2:19" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="32"/>
       <c r="C266" s="32"/>
       <c r="D266" s="32"/>
       <c r="I266" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53822,7 +54100,7 @@
       <c r="C267" s="32"/>
       <c r="D267" s="32"/>
       <c r="I267" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53831,7 +54109,7 @@
       <c r="C268" s="32"/>
       <c r="D268" s="32"/>
       <c r="I268" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53840,7 +54118,7 @@
       <c r="C269" s="32"/>
       <c r="D269" s="32"/>
       <c r="I269" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53849,7 +54127,7 @@
       <c r="C270" s="32"/>
       <c r="D270" s="32"/>
       <c r="I270" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53858,7 +54136,7 @@
       <c r="C271" s="32"/>
       <c r="D271" s="32"/>
       <c r="I271" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53867,7 +54145,7 @@
       <c r="C272" s="32"/>
       <c r="D272" s="32"/>
       <c r="I272" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53876,7 +54154,7 @@
       <c r="C273" s="32"/>
       <c r="D273" s="32"/>
       <c r="I273" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53885,7 +54163,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
       <c r="I274" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53894,7 +54172,7 @@
       <c r="C275" s="32"/>
       <c r="D275" s="32"/>
       <c r="I275" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53903,7 +54181,7 @@
       <c r="C276" s="32"/>
       <c r="D276" s="32"/>
       <c r="I276" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53912,7 +54190,7 @@
       <c r="C277" s="32"/>
       <c r="D277" s="32"/>
       <c r="I277" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53921,7 +54199,7 @@
       <c r="C278" s="32"/>
       <c r="D278" s="32"/>
       <c r="I278" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53930,7 +54208,7 @@
       <c r="C279" s="32"/>
       <c r="D279" s="32"/>
       <c r="I279" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53939,7 +54217,7 @@
       <c r="C280" s="32"/>
       <c r="D280" s="32"/>
       <c r="I280" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53948,7 +54226,7 @@
       <c r="C281" s="32"/>
       <c r="D281" s="32"/>
       <c r="I281" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53957,7 +54235,7 @@
       <c r="C282" s="32"/>
       <c r="D282" s="32"/>
       <c r="I282" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53966,7 +54244,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
       <c r="I283" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53975,7 +54253,7 @@
       <c r="C284" s="32"/>
       <c r="D284" s="32"/>
       <c r="I284" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53984,7 +54262,7 @@
       <c r="C285" s="32"/>
       <c r="D285" s="32"/>
       <c r="I285" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -53993,7 +54271,7 @@
       <c r="C286" s="32"/>
       <c r="D286" s="32"/>
       <c r="I286" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54002,7 +54280,7 @@
       <c r="C287" s="32"/>
       <c r="D287" s="32"/>
       <c r="I287" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54011,7 +54289,7 @@
       <c r="C288" s="32"/>
       <c r="D288" s="32"/>
       <c r="I288" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54020,7 +54298,7 @@
       <c r="C289" s="32"/>
       <c r="D289" s="32"/>
       <c r="I289" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54029,7 +54307,7 @@
       <c r="C290" s="32"/>
       <c r="D290" s="32"/>
       <c r="I290" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54038,7 +54316,7 @@
       <c r="C291" s="32"/>
       <c r="D291" s="32"/>
       <c r="I291" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54047,7 +54325,7 @@
       <c r="C292" s="32"/>
       <c r="D292" s="32"/>
       <c r="I292" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54056,7 +54334,7 @@
       <c r="C293" s="32"/>
       <c r="D293" s="32"/>
       <c r="I293" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54065,7 +54343,7 @@
       <c r="C294" s="32"/>
       <c r="D294" s="32"/>
       <c r="I294" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54074,7 +54352,7 @@
       <c r="C295" s="32"/>
       <c r="D295" s="32"/>
       <c r="I295" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54083,7 +54361,7 @@
       <c r="C296" s="32"/>
       <c r="D296" s="32"/>
       <c r="I296" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54092,7 +54370,7 @@
       <c r="C297" s="32"/>
       <c r="D297" s="32"/>
       <c r="I297" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54101,7 +54379,7 @@
       <c r="C298" s="32"/>
       <c r="D298" s="32"/>
       <c r="I298" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54110,7 +54388,7 @@
       <c r="C299" s="32"/>
       <c r="D299" s="32"/>
       <c r="I299" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54119,7 +54397,7 @@
       <c r="C300" s="32"/>
       <c r="D300" s="32"/>
       <c r="I300" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54128,7 +54406,7 @@
       <c r="C301" s="32"/>
       <c r="D301" s="32"/>
       <c r="I301" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54137,7 +54415,7 @@
       <c r="C302" s="32"/>
       <c r="D302" s="32"/>
       <c r="I302" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54146,7 +54424,7 @@
       <c r="C303" s="32"/>
       <c r="D303" s="32"/>
       <c r="I303" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54155,7 +54433,7 @@
       <c r="C304" s="32"/>
       <c r="D304" s="32"/>
       <c r="I304" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54164,7 +54442,7 @@
       <c r="C305" s="32"/>
       <c r="D305" s="32"/>
       <c r="I305" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54173,7 +54451,7 @@
       <c r="C306" s="32"/>
       <c r="D306" s="32"/>
       <c r="I306" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54182,7 +54460,7 @@
       <c r="C307" s="32"/>
       <c r="D307" s="32"/>
       <c r="I307" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54191,7 +54469,7 @@
       <c r="C308" s="32"/>
       <c r="D308" s="32"/>
       <c r="I308" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54200,7 +54478,7 @@
       <c r="C309" s="32"/>
       <c r="D309" s="32"/>
       <c r="I309" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54209,7 +54487,7 @@
       <c r="C310" s="32"/>
       <c r="D310" s="32"/>
       <c r="I310" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54218,7 +54496,7 @@
       <c r="C311" s="32"/>
       <c r="D311" s="32"/>
       <c r="I311" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -54227,72 +54505,95 @@
       <c r="C312" s="32"/>
       <c r="D312" s="32"/>
       <c r="I312" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="313" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="32"/>
+      <c r="C313" s="32"/>
+      <c r="D313" s="32"/>
       <c r="I313" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="314" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="32"/>
+      <c r="C314" s="32"/>
+      <c r="D314" s="32"/>
       <c r="I314" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="315" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I315" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="316" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I316" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="317" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I317" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="318" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I318" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="319" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I319" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="320" spans="2:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I320" s="30" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="321" spans="9:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I321" s="30" t="str">
-        <f t="shared" ref="I321:I322" ca="1" si="38">IF(J321 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
     <row r="322" spans="9:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I322" s="30" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="9:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I323" s="30" t="str">
+        <f t="shared" ref="I323:I324" ca="1" si="47">IF(J323 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="9:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I324" s="30" t="str">
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="F1:F2"/>
@@ -54300,179 +54601,246 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B119">
-    <cfRule type="expression" dxfId="50" priority="2">
+  <conditionalFormatting sqref="B3:B14 B17:B121">
+    <cfRule type="expression" dxfId="72" priority="24">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="71" priority="25">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G1048576">
-    <cfRule type="expression" dxfId="48" priority="4">
+  <conditionalFormatting sqref="G5:G14 G17:G1048576">
+    <cfRule type="expression" dxfId="70" priority="26">
       <formula>IF(I5="",0, G5)  &lt; - 0.05* IF(I5="",0,I5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="69" priority="27">
       <formula>AND(IF(I5="",0, G5)  &gt;= - 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="68" priority="28">
       <formula>AND(IF(I5="",0, G5)  &lt;= 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="67" priority="29">
       <formula>IF(I5="",0,G5)  &gt; 0.05* IF(I5="",0,I5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B118">
-    <cfRule type="expression" dxfId="44" priority="8">
+  <conditionalFormatting sqref="B3:B14 B17:B120">
+    <cfRule type="expression" dxfId="66" priority="30">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="65" priority="31">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="expression" dxfId="64" priority="32">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="63" priority="33">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="62" priority="34">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="61" priority="35">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="60" priority="36">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="59" priority="37">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="58" priority="38">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="56" priority="40">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="19">
+    <cfRule type="expression" dxfId="55" priority="41">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="20">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="53" priority="43">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="49" priority="56">
       <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36">
+    <cfRule type="expression" dxfId="47" priority="58">
       <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="24" priority="37">
+    <cfRule type="expression" dxfId="46" priority="59">
       <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="38">
+    <cfRule type="expression" dxfId="45" priority="60">
       <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="39">
+    <cfRule type="expression" dxfId="44" priority="61">
       <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="40">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="20" priority="41">
+    <cfRule type="expression" dxfId="42" priority="63">
       <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="42">
+    <cfRule type="expression" dxfId="41" priority="64">
       <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43">
+    <cfRule type="expression" dxfId="40" priority="65">
       <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="44">
+    <cfRule type="expression" dxfId="39" priority="66">
       <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" dxfId="16" priority="45">
+    <cfRule type="expression" dxfId="38" priority="67">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="46">
+    <cfRule type="expression" dxfId="37" priority="68">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="47">
+    <cfRule type="expression" dxfId="36" priority="69">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="48">
+    <cfRule type="expression" dxfId="35" priority="70">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="49">
+    <cfRule type="expression" dxfId="34" priority="71">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="50">
+    <cfRule type="expression" dxfId="33" priority="72">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="51">
+    <cfRule type="expression" dxfId="32" priority="73">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="52">
+    <cfRule type="expression" dxfId="31" priority="74">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="53">
+    <cfRule type="expression" dxfId="30" priority="75">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="54">
+    <cfRule type="expression" dxfId="29" priority="76">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="55">
+    <cfRule type="expression" dxfId="28" priority="77">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="56">
+    <cfRule type="expression" dxfId="27" priority="78">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="4" priority="101">
-      <formula>SUMIF(G3:G119,"&gt;0")-SUMIF(G3:G119,"&lt;0") &gt; 1</formula>
+    <cfRule type="expression" dxfId="26" priority="123">
+      <formula>SUMIF(G3:G121,"&gt;0")-SUMIF(G3:G121,"&lt;0") &gt; 1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="25" priority="124">
       <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="24" priority="125">
       <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="104">
+    <cfRule type="expression" dxfId="23" priority="126">
       <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="105">
+    <cfRule type="expression" dxfId="22" priority="127">
       <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="21" priority="1">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>IF(I15="",0, G15)  &lt; - 0.05* IF(I15="",0,I15)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>AND(IF(I15="",0, G15)  &gt;= - 0.05* IF(I15="",0,I15), IF(I15="",0, G15) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>AND(IF(I15="",0, G15)  &lt;= 0.05* IF(I15="",0,I15), IF(I15="",0, G15) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>IF(I15="",0,G15)  &gt; 0.05* IF(I15="",0,I15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="16">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="17">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="19">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21">
+      <formula>$B15&lt;&gt;#REF!</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>$B15&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -54487,7 +54855,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B3:B119</xm:sqref>
+          <xm:sqref>B3:B121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -54496,7 +54864,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E3:E56</xm:sqref>
+          <xm:sqref>E3:E58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
